--- a/biology/Botanique/Begonia_valdensium/Begonia_valdensium.xlsx
+++ b/biology/Botanique/Begonia_valdensium/Begonia_valdensium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia valdensium est une espèce de plantes de la famille des Begoniaceae. Ce bégonia arbustif est endémique du Brésil.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante terrestre arbustive, qui pousse de préférence sur les surface rocheuses. Elle a un port dressé et mesure entre 1 m et 1,5 m de haut. Tiges et feuilles sont glabres. L'espèce est toutefois caractérisée par la présence d'un anneau trichome à l'extrémité du pétiole[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante terrestre arbustive, qui pousse de préférence sur les surface rocheuses. Elle a un port dressé et mesure entre 1 m et 1,5 m de haut. Tiges et feuilles sont glabres. L'espèce est toutefois caractérisée par la présence d'un anneau trichome à l'extrémité du pétiole.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce bégonia est originaire du Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce bégonia est originaire du Brésil.
 </t>
         </is>
       </c>
@@ -573,15 +589,52 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Begonia valdensium fait partie de la section Pritzelia du genre Begonia. Comme tous les bégonias, Begonia valdensium fait partie de la famille des Begoniaceae, dans l'ordre des Cucurbitales.
-L'espèce a été publiée en 1859 par Alphonse Pyrame de Candolle (1806-1893). L'épithète spécifique « valdensium » est formée à partir de Valdense, du Canton de Vaud en Suisse[2].
-Ce bégonia est décrit d'après les échantillons trouvés dans la région de São Paulo par ses élèves originaires de Suisse, Gustave Perdonnet (1822-1913) et Édouard Louis Chavannes (es) (1805-1861)[4], mais la plante avait été découverte au Brésil par le botaniste Charles-Henri Godet (1797-1879), suisse également, sans qu'on sache la date ni son lieu de récolte[5]. Notons qu'une communauté de l'Église évangélique vaudoise[note 1] s'implante au Brésil vers la fin du XIXe siècle, notamment dans les états de Rio et São Paulo [6].
-Publication originale : Annales des Sciences Naturelles; Botanique, série 4, 11: 138. 1859[7].
-Liste des variétés
-En 2020, ces variétés ne sont généralement plus reconnues au sein de l'espèce[8].
-Selon Tropicos                                           (23 février 2017)[9] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia valdensium fait partie de la section Pritzelia du genre Begonia. Comme tous les bégonias, Begonia valdensium fait partie de la famille des Begoniaceae, dans l'ordre des Cucurbitales.
+L'espèce a été publiée en 1859 par Alphonse Pyrame de Candolle (1806-1893). L'épithète spécifique « valdensium » est formée à partir de Valdense, du Canton de Vaud en Suisse.
+Ce bégonia est décrit d'après les échantillons trouvés dans la région de São Paulo par ses élèves originaires de Suisse, Gustave Perdonnet (1822-1913) et Édouard Louis Chavannes (es) (1805-1861), mais la plante avait été découverte au Brésil par le botaniste Charles-Henri Godet (1797-1879), suisse également, sans qu'on sache la date ni son lieu de récolte. Notons qu'une communauté de l'Église évangélique vaudoise[note 1] s'implante au Brésil vers la fin du XIXe siècle, notamment dans les états de Rio et São Paulo .
+Publication originale : Annales des Sciences Naturelles; Botanique, série 4, 11: 138. 1859.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_valdensium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_valdensium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 2020, ces variétés ne sont généralement plus reconnues au sein de l'espèce.
+Selon Tropicos                                           (23 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia valdensium var. angustior Irmsch.
 variété Begonia valdensium var. valdensium</t>
         </is>
